--- a/Machine Learning Module Project/Excel with some data.xlsx
+++ b/Machine Learning Module Project/Excel with some data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters Projects\Master-In-AI\Machine Learning Module Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B78B5D6-06E3-4B44-9A23-60D01DC510F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A1A69B-F46C-49D9-AF33-D8EC126E70FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{948CA409-F894-497E-9E5A-D839A0741C4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{948CA409-F894-497E-9E5A-D839A0741C4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Accuracy</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Model Name</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -413,36 +416,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -464,7 +458,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -479,7 +473,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -507,6 +501,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D165B1EA-1E09-4064-AAA0-3D4495168DB8}">
-  <dimension ref="G4:L11"/>
+  <dimension ref="G4:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,37 +883,37 @@
   <sheetData>
     <row r="4" spans="7:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="7:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="7:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="7:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="6">
@@ -911,7 +933,7 @@
       </c>
     </row>
     <row r="8" spans="7:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="2">
@@ -931,7 +953,7 @@
       </c>
     </row>
     <row r="9" spans="7:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="2">
@@ -951,7 +973,7 @@
       </c>
     </row>
     <row r="10" spans="7:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="2">
@@ -971,7 +993,7 @@
       </c>
     </row>
     <row r="11" spans="7:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="4">
@@ -988,6 +1010,134 @@
       </c>
       <c r="L11" s="5">
         <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="7:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="7:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="7:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="G15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="34">
+        <v>1</v>
+      </c>
+      <c r="I15" s="34">
+        <v>0</v>
+      </c>
+      <c r="J15" s="34">
+        <v>131</v>
+      </c>
+      <c r="K15" s="34">
+        <v>147</v>
+      </c>
+      <c r="L15" s="35">
+        <f>SUM(H15:K15)</f>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="7:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="G16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="36">
+        <v>4</v>
+      </c>
+      <c r="I16" s="36">
+        <v>10</v>
+      </c>
+      <c r="J16" s="36">
+        <v>121</v>
+      </c>
+      <c r="K16" s="36">
+        <v>145</v>
+      </c>
+      <c r="L16" s="37">
+        <f t="shared" ref="L16:L19" si="0">SUM(H16:K16)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="7:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="G17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="36">
+        <v>6</v>
+      </c>
+      <c r="I17" s="36">
+        <v>19</v>
+      </c>
+      <c r="J17" s="36">
+        <v>112</v>
+      </c>
+      <c r="K17" s="36">
+        <v>142</v>
+      </c>
+      <c r="L17" s="37">
+        <f t="shared" si="0"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12" ht="21" x14ac:dyDescent="0.3">
+      <c r="G18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="36">
+        <v>8</v>
+      </c>
+      <c r="I18" s="36">
+        <v>23</v>
+      </c>
+      <c r="J18" s="36">
+        <v>108</v>
+      </c>
+      <c r="K18" s="36">
+        <v>140</v>
+      </c>
+      <c r="L18" s="37">
+        <f t="shared" si="0"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="38">
+        <v>7</v>
+      </c>
+      <c r="I19" s="38">
+        <v>28</v>
+      </c>
+      <c r="J19" s="38">
+        <v>103</v>
+      </c>
+      <c r="K19" s="38">
+        <v>142</v>
+      </c>
+      <c r="L19" s="39">
+        <f t="shared" si="0"/>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +1145,7 @@
     <mergeCell ref="G5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:H11">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1007,7 +1157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I11">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1019,7 +1169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J11">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1031,6 +1181,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K11">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:L11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1042,7 +1240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L11">
+  <conditionalFormatting sqref="K15:K19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1079,46 +1277,46 @@
   <sheetData>
     <row r="5" spans="8:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="8:14" ht="42" x14ac:dyDescent="0.3">
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="8:14" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="20">
         <v>1</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="20">
         <v>0.96599999999999997</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="20">
         <v>0.95199999999999996</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="15">
         <v>0.94899999999999995</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I7:M7">
@@ -1141,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502B42AB-3694-4475-ADB1-EC2C5915B22A}">
   <dimension ref="D8:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A13" zoomScale="158" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,109 +1398,109 @@
     </row>
     <row r="18" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="27" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="21">
         <v>1</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="21">
         <v>0</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="21">
         <v>131</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="22">
         <v>147</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="21">
         <v>4</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="21">
         <v>10</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="21">
         <v>121</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="22">
         <v>145</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="21">
         <v>6</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="21">
         <v>19</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="21">
         <v>112</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="22">
         <v>142</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="21">
         <v>8</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="21">
         <v>23</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="21">
         <v>108</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="22">
         <v>140</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="23">
         <v>7</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="23">
         <v>28</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="23">
         <v>103</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="24">
         <v>142</v>
       </c>
       <c r="I24" s="1"/>
